--- a/crowd_certain/outputs/final_figures/figure_heatmap_F_evals_kr-vs-kp_all_labelers/figure_heatmap_F_evals_kr-vs-kp_all_labelers.xlsx
+++ b/crowd_certain/outputs/final_figures/figure_heatmap_F_evals_kr-vs-kp_all_labelers/figure_heatmap_F_evals_kr-vs-kp_all_labelers.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,197 +635,93 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>brier score loss</t>
+        </is>
+      </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>NL6</t>
+          <t>NL3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.772</v>
+        <v>0.781</v>
       </c>
       <c r="D7" t="n">
-        <v>3.449</v>
+        <v>0.445</v>
       </c>
       <c r="E7" t="n">
-        <v>3.42</v>
+        <v>0.428</v>
       </c>
       <c r="F7" t="n">
-        <v>2.599</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>3.214</v>
+        <v>0.446</v>
       </c>
       <c r="H7" t="n">
-        <v>3.472</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>NL7</t>
+          <t>NL4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.87</v>
+        <v>0.785</v>
       </c>
       <c r="D8" t="n">
-        <v>3.475</v>
+        <v>0.452</v>
       </c>
       <c r="E8" t="n">
-        <v>3.432</v>
+        <v>0.423</v>
       </c>
       <c r="F8" t="n">
-        <v>2.744</v>
+        <v>0.753</v>
       </c>
       <c r="G8" t="n">
-        <v>3.132</v>
+        <v>0.524</v>
       </c>
       <c r="H8" t="n">
-        <v>3.359</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>brier score loss</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>NL3</t>
+          <t>NL5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.781</v>
+        <v>0.788</v>
       </c>
       <c r="D9" t="n">
-        <v>0.445</v>
+        <v>0.471</v>
       </c>
       <c r="E9" t="n">
-        <v>0.428</v>
+        <v>0.434</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.834</v>
       </c>
       <c r="G9" t="n">
-        <v>0.446</v>
+        <v>0.545</v>
       </c>
       <c r="H9" t="n">
-        <v>0.414</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>NL4</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.753</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.524</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.441</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>NL5</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="H11" t="n">
         <v>0.48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>NL6</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.753</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>NL7</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.452</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/crowd_certain/outputs/final_figures/figure_heatmap_F_evals_kr-vs-kp_all_labelers/figure_heatmap_F_evals_kr-vs-kp_all_labelers.xlsx
+++ b/crowd_certain/outputs/final_figures/figure_heatmap_F_evals_kr-vs-kp_all_labelers/figure_heatmap_F_evals_kr-vs-kp_all_labelers.xlsx
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.732</v>
+        <v>2.844</v>
       </c>
       <c r="D4" t="n">
-        <v>3.075</v>
+        <v>3.105</v>
       </c>
       <c r="E4" t="n">
-        <v>2.398</v>
+        <v>2.388</v>
       </c>
       <c r="F4" t="n">
-        <v>2.289</v>
+        <v>2.464</v>
       </c>
       <c r="G4" t="n">
-        <v>2.104</v>
+        <v>2.141</v>
       </c>
       <c r="H4" t="n">
-        <v>3.272</v>
+        <v>3.269</v>
       </c>
     </row>
     <row r="5">
@@ -590,22 +590,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.103</v>
+        <v>2.672</v>
       </c>
       <c r="D5" t="n">
-        <v>3.24</v>
+        <v>3.425</v>
       </c>
       <c r="E5" t="n">
-        <v>3.266</v>
+        <v>3.443</v>
       </c>
       <c r="F5" t="n">
-        <v>2.768</v>
+        <v>2.414</v>
       </c>
       <c r="G5" t="n">
-        <v>2.917</v>
+        <v>3.251</v>
       </c>
       <c r="H5" t="n">
-        <v>2.962</v>
+        <v>3.201</v>
       </c>
     </row>
     <row r="6">
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.688</v>
+        <v>3.008</v>
       </c>
       <c r="D6" t="n">
-        <v>3.247</v>
+        <v>3.318</v>
       </c>
       <c r="E6" t="n">
-        <v>3.484</v>
+        <v>3.518</v>
       </c>
       <c r="F6" t="n">
-        <v>2.977</v>
+        <v>2.818</v>
       </c>
       <c r="G6" t="n">
-        <v>3.059</v>
+        <v>3.101</v>
       </c>
       <c r="H6" t="n">
-        <v>3.178</v>
+        <v>3.262</v>
       </c>
     </row>
     <row r="7">
@@ -646,22 +646,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.781</v>
+        <v>0.752</v>
       </c>
       <c r="D7" t="n">
-        <v>0.445</v>
+        <v>0.461</v>
       </c>
       <c r="E7" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.428</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.414</v>
       </c>
     </row>
     <row r="8">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.785</v>
+        <v>0.801</v>
       </c>
       <c r="D8" t="n">
-        <v>0.452</v>
+        <v>0.541</v>
       </c>
       <c r="E8" t="n">
-        <v>0.423</v>
+        <v>0.503</v>
       </c>
       <c r="F8" t="n">
-        <v>0.753</v>
+        <v>0.763</v>
       </c>
       <c r="G8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.524</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.441</v>
       </c>
     </row>
     <row r="9">
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.788</v>
+        <v>0.618</v>
       </c>
       <c r="D9" t="n">
-        <v>0.471</v>
+        <v>0.477</v>
       </c>
       <c r="E9" t="n">
-        <v>0.434</v>
+        <v>0.439</v>
       </c>
       <c r="F9" t="n">
-        <v>0.834</v>
+        <v>0.677</v>
       </c>
       <c r="G9" t="n">
-        <v>0.545</v>
+        <v>0.542</v>
       </c>
       <c r="H9" t="n">
-        <v>0.48</v>
+        <v>0.483</v>
       </c>
     </row>
   </sheetData>

--- a/crowd_certain/outputs/final_figures/figure_heatmap_F_evals_kr-vs-kp_all_labelers/figure_heatmap_F_evals_kr-vs-kp_all_labelers.xlsx
+++ b/crowd_certain/outputs/final_figures/figure_heatmap_F_evals_kr-vs-kp_all_labelers/figure_heatmap_F_evals_kr-vs-kp_all_labelers.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -76,27 +76,6 @@
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -474,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,164 +543,58 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.844</v>
+        <v>2.253</v>
       </c>
       <c r="D4" t="n">
-        <v>3.105</v>
+        <v>1.807</v>
       </c>
       <c r="E4" t="n">
-        <v>2.388</v>
+        <v>1.04</v>
       </c>
       <c r="F4" t="n">
-        <v>2.464</v>
+        <v>1.653</v>
       </c>
       <c r="G4" t="n">
-        <v>2.141</v>
+        <v>1.083</v>
       </c>
       <c r="H4" t="n">
-        <v>3.269</v>
+        <v>1.878</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>brier score loss</t>
+        </is>
+      </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>NL4</t>
+          <t>NL3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.672</v>
+        <v>0.773</v>
       </c>
       <c r="D5" t="n">
-        <v>3.425</v>
+        <v>0.412</v>
       </c>
       <c r="E5" t="n">
-        <v>3.443</v>
+        <v>0.394</v>
       </c>
       <c r="F5" t="n">
-        <v>2.414</v>
+        <v>0.633</v>
       </c>
       <c r="G5" t="n">
-        <v>3.251</v>
+        <v>0.431</v>
       </c>
       <c r="H5" t="n">
-        <v>3.201</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>NL5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3.008</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.318</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.518</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.818</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.101</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.262</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>brier score loss</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>NL3</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.648</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.428</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>NL4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.503</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.524</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>NL5</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.677</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.483</v>
+        <v>0.384</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A7:A9"/>
+  <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
